--- a/favorite_movie_auto_populate_brief.xlsx
+++ b/favorite_movie_auto_populate_brief.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\happymovie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\happymovie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60DEA8A-7E8B-45C5-A60D-263B29E7BA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB9F106-8D28-49AB-8C29-C76B3CA5AB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,17 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="404">
   <si>
     <t>movie_name</t>
   </si>
   <si>
-    <t>running_time</t>
-  </si>
-  <si>
-    <t>rating_num</t>
-  </si>
-  <si>
     <t>灰猎犬号 Greyhound</t>
   </si>
   <si>
@@ -471,9 +465,6 @@
   </si>
   <si>
     <t>夕阳天使 夕陽天使</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UK: 110 </t>
   </si>
   <si>
     <t>6.7</t>
@@ -1121,13 +1112,180 @@
   </si>
   <si>
     <t>独孤九剑</t>
+  </si>
+  <si>
+    <t>云南虫谷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗战2 暗戰2</t>
+  </si>
+  <si>
+    <t>暗战 暗戰</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">愤怒的黄牛 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>성난황소</t>
+    </r>
+  </si>
+  <si>
+    <t>华尔街之狼 The Wolf of Wall Street</t>
+  </si>
+  <si>
+    <t>8.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>负重前行 Cargo</t>
+  </si>
+  <si>
+    <t>觉醒 The Awakening</t>
+  </si>
+  <si>
+    <t>角头 角頭</t>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>115</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>133</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>63</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>追龙Ⅱ 追龍2：賊王</t>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie_runtime</t>
+  </si>
+  <si>
+    <t>movie_rating</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1146,6 +1304,14 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1493,17 +1659,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D223"/>
+  <dimension ref="A1:D230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:A230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="97.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1511,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1522,13 +1687,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1536,13 +1701,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1550,13 +1715,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1564,13 +1729,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1578,13 +1743,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1592,13 +1757,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1606,13 +1771,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1620,13 +1785,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1634,13 +1799,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1648,13 +1813,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1662,13 +1827,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1676,13 +1841,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1690,13 +1855,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1704,13 +1869,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1718,13 +1883,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1732,13 +1897,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
         <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1746,13 +1911,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
         <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1760,13 +1925,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
         <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1774,13 +1939,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
         <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1788,13 +1953,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1802,13 +1967,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
         <v>57</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1816,13 +1981,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1830,13 +1995,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
         <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1844,13 +2009,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
         <v>65</v>
-      </c>
-      <c r="C25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1858,13 +2023,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
         <v>68</v>
-      </c>
-      <c r="C26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1872,13 +2037,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1886,13 +2051,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1900,13 +2065,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1914,13 +2079,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
         <v>77</v>
-      </c>
-      <c r="C30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1928,13 +2093,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1942,13 +2107,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1956,13 +2121,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="s">
         <v>83</v>
-      </c>
-      <c r="C33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1970,13 +2135,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1984,13 +2149,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1998,13 +2163,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" t="s">
         <v>89</v>
-      </c>
-      <c r="C36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2012,13 +2177,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2026,13 +2191,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" t="s">
         <v>94</v>
-      </c>
-      <c r="C38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2040,13 +2205,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2054,13 +2219,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2068,13 +2233,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2082,13 +2247,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2096,13 +2261,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2110,13 +2275,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2124,13 +2289,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="D45" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2138,13 +2303,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2152,13 +2317,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2166,13 +2331,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D48" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2180,13 +2345,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2194,13 +2359,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2208,13 +2373,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2222,13 +2387,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2236,13 +2401,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="D53" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2250,13 +2415,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2264,13 +2429,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2278,13 +2443,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="D56" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2292,13 +2457,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C57" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="D57" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2306,13 +2471,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2320,13 +2485,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C59" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2334,13 +2499,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2348,13 +2513,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C61" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2362,13 +2527,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2376,13 +2541,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D63" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2390,13 +2555,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D64" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2404,13 +2569,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D65" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2418,13 +2583,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C66" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="D66" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2432,13 +2597,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2446,13 +2611,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D68" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2460,13 +2625,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D69" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2474,13 +2639,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
-      </c>
-      <c r="C70" t="s">
-        <v>58</v>
+        <v>147</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>364</v>
       </c>
       <c r="D70" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2488,13 +2653,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C71" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="D71" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2502,13 +2667,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C72" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="D72" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2516,13 +2681,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C73" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D73" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2530,13 +2695,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C74" t="s">
-        <v>148</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2544,13 +2709,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="D75" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2558,13 +2723,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C76" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="D76" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2572,13 +2737,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C77" t="s">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2586,13 +2751,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D78" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2600,13 +2765,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2614,13 +2779,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C80" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="D80" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2628,13 +2793,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="D81" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2642,13 +2807,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C82" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2656,13 +2821,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="D83" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2670,13 +2835,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C84" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="D84" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2684,13 +2849,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C85" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D85" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2698,13 +2863,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C86" t="s">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2712,13 +2877,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C87" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="D87" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2726,13 +2891,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C88" t="s">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="D88" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2740,13 +2905,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C89" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
       <c r="D89" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2754,13 +2919,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C90" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D90" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2768,13 +2933,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C91" t="s">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="D91" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2782,13 +2947,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C92" t="s">
-        <v>177</v>
+        <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>25</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2796,13 +2961,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C93" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="D93" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2810,13 +2975,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D94" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2824,13 +2989,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C95" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="D95" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2838,13 +3003,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C96" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="D96" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2852,13 +3017,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C97" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="D97" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2866,13 +3031,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C98" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="D98" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2880,13 +3045,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>187</v>
+        <v>114</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="D99" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2894,13 +3059,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C100" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D100" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2908,13 +3073,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C101" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="D101" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2922,13 +3087,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C102" t="s">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c r="D102" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2936,13 +3101,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C103" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="D103" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2950,13 +3115,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="C104" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2964,13 +3129,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C105" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="D105" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2978,13 +3143,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C106" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D106" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2992,13 +3157,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C107" t="s">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3006,13 +3171,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C108" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D108" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3020,13 +3185,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C109" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="D109" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3034,13 +3199,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C110" t="s">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="D110" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3048,13 +3213,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C111" t="s">
-        <v>50</v>
+        <v>203</v>
       </c>
       <c r="D111" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3062,13 +3227,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D112" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3076,13 +3241,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C113" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="D113" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3090,13 +3255,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C114" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D114" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3104,13 +3269,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C115" t="s">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c r="D115" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3118,13 +3283,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C116" t="s">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="D116" t="s">
-        <v>31</v>
+        <v>210</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3132,13 +3297,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C117" t="s">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="D117" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3146,13 +3311,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C118" t="s">
-        <v>209</v>
+        <v>33</v>
       </c>
       <c r="D118" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3160,13 +3325,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C119" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="D119" t="s">
-        <v>31</v>
+        <v>215</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3174,13 +3339,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="D120" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3188,13 +3353,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C121" t="s">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="D121" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3202,13 +3367,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C122" t="s">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="D122" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3216,13 +3381,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C123" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="D123" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3230,13 +3395,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D124" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3244,13 +3409,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C125" t="s">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="D125" t="s">
-        <v>96</v>
+        <v>223</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3258,13 +3423,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C126" t="s">
-        <v>221</v>
+        <v>28</v>
       </c>
       <c r="D126" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3272,13 +3437,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C127" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D127" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3286,13 +3451,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C128" t="s">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="D128" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3300,13 +3465,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C129" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="D129" t="s">
-        <v>226</v>
+        <v>57</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3314,13 +3479,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C130" t="s">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="D130" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3328,13 +3493,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C131" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D131" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3342,13 +3507,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C132" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="D132" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3356,13 +3521,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D133" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3370,13 +3535,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C134" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D134" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3384,13 +3549,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C135" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="D135" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3398,13 +3563,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="D136" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3412,13 +3577,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="D137" t="s">
-        <v>107</v>
+        <v>223</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3426,13 +3591,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C138" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D138" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3440,13 +3605,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C139" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="D139" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3454,13 +3619,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C140" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="D140" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3468,13 +3633,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C141" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="D141" t="s">
-        <v>70</v>
+        <v>243</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3482,13 +3647,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C142" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D142" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3496,13 +3661,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C143" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="D143" t="s">
-        <v>96</v>
+        <v>247</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3510,13 +3675,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C144" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="D144" t="s">
-        <v>70</v>
+        <v>215</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3524,13 +3689,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C145" t="s">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="D145" t="s">
-        <v>226</v>
+        <v>94</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3538,13 +3703,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C146" t="s">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="D146" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3552,13 +3717,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C147" t="s">
-        <v>98</v>
+        <v>254</v>
       </c>
       <c r="D147" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3566,13 +3731,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C148" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="D148" t="s">
-        <v>250</v>
+        <v>94</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3580,13 +3745,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C149" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="D149" t="s">
-        <v>218</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3594,13 +3759,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C150" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D150" t="s">
-        <v>96</v>
+        <v>231</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3608,13 +3773,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C151" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="D151" t="s">
-        <v>255</v>
+        <v>94</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3622,13 +3787,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C152" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="D152" t="s">
-        <v>255</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3636,13 +3801,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C153" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="D153" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3650,13 +3815,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C154" t="s">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c r="D154" t="s">
-        <v>20</v>
+        <v>243</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3664,13 +3829,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C155" t="s">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="D155" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3678,13 +3843,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C156" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D156" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3692,13 +3857,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C157" t="s">
-        <v>38</v>
+        <v>267</v>
       </c>
       <c r="D157" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3706,13 +3871,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C158" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="D158" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3720,13 +3885,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C159" t="s">
-        <v>266</v>
+        <v>107</v>
       </c>
       <c r="D159" t="s">
-        <v>246</v>
+        <v>89</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3734,13 +3899,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C160" t="s">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="D160" t="s">
-        <v>255</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3748,13 +3913,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C161" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="D161" t="s">
-        <v>107</v>
+        <v>272</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3762,13 +3927,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C162" t="s">
-        <v>270</v>
+        <v>116</v>
       </c>
       <c r="D162" t="s">
-        <v>226</v>
+        <v>57</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3776,13 +3941,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C163" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D163" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3790,13 +3955,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C164" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="D164" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3804,13 +3969,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C165" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D165" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3818,13 +3983,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C166" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D166" t="s">
-        <v>275</v>
+        <v>140</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3832,13 +3997,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C167" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="D167" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3846,13 +4011,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C168" t="s">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="D168" t="s">
-        <v>138</v>
+        <v>281</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3860,13 +4025,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C169" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="D169" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3874,13 +4039,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C170" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="D170" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3888,13 +4053,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C171" t="s">
-        <v>66</v>
+        <v>285</v>
       </c>
       <c r="D171" t="s">
-        <v>142</v>
+        <v>286</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3902,13 +4067,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C172" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="D172" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3916,13 +4081,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>282</v>
-      </c>
-      <c r="C173" t="s">
-        <v>283</v>
-      </c>
-      <c r="D173" t="s">
-        <v>284</v>
+        <v>399</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3930,13 +4095,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C174" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D174" t="s">
-        <v>8</v>
+        <v>223</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3944,13 +4109,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C175" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="D175" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3958,13 +4123,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C176" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D176" t="s">
-        <v>289</v>
+        <v>245</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3972,13 +4137,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>293</v>
       </c>
       <c r="D177" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3986,13 +4151,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="D178" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4000,13 +4165,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C179" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="D179" t="s">
-        <v>226</v>
+        <v>26</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4014,13 +4179,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C180" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="D180" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4028,13 +4193,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C181" t="s">
-        <v>294</v>
+        <v>144</v>
       </c>
       <c r="D181" t="s">
-        <v>248</v>
+        <v>298</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4042,13 +4207,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C182" t="s">
-        <v>296</v>
+        <v>51</v>
       </c>
       <c r="D182" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4056,13 +4221,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C183" t="s">
-        <v>221</v>
+        <v>67</v>
       </c>
       <c r="D183" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4070,13 +4235,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C184" t="s">
-        <v>253</v>
+        <v>88</v>
       </c>
       <c r="D184" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4084,13 +4249,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C185" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D185" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4098,13 +4263,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C186" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="D186" t="s">
-        <v>301</v>
+        <v>110</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4112,13 +4277,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C187" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="D187" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4126,13 +4291,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C188" t="s">
-        <v>69</v>
+        <v>306</v>
       </c>
       <c r="D188" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4140,13 +4305,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C189" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D189" t="s">
-        <v>91</v>
+        <v>231</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4154,13 +4319,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C190" t="s">
-        <v>66</v>
+        <v>309</v>
       </c>
       <c r="D190" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4168,13 +4333,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C191" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D191" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4182,13 +4347,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C192" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="D192" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4196,13 +4361,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C193" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D193" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4210,13 +4375,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C194" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D194" t="s">
-        <v>234</v>
+        <v>29</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4224,13 +4389,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C195" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D195" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4238,13 +4403,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C196" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D196" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4252,13 +4417,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C197" t="s">
-        <v>66</v>
+        <v>319</v>
       </c>
       <c r="D197" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4266,13 +4431,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C198" t="s">
-        <v>316</v>
+        <v>22</v>
       </c>
       <c r="D198" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4280,13 +4445,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C199" t="s">
-        <v>63</v>
+        <v>322</v>
       </c>
       <c r="D199" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4294,13 +4459,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C200" t="s">
-        <v>319</v>
+        <v>116</v>
       </c>
       <c r="D200" t="s">
-        <v>5</v>
+        <v>252</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4308,13 +4473,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C201" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="D201" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4322,13 +4487,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C202" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
       <c r="D202" t="s">
-        <v>59</v>
+        <v>215</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4336,13 +4501,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C203" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="D203" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4350,13 +4515,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C204" t="s">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="D204" t="s">
-        <v>48</v>
+        <v>252</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4364,13 +4529,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C205" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="D205" t="s">
-        <v>255</v>
+        <v>62</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4378,13 +4543,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C206" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D206" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4392,13 +4557,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C207" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="D207" t="s">
-        <v>218</v>
+        <v>331</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4406,13 +4571,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C208" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="D208" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4420,13 +4585,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C209" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="D209" t="s">
-        <v>255</v>
+        <v>94</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4434,13 +4599,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C210" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D210" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4448,13 +4613,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C211" t="s">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="D211" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4462,13 +4627,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C212" t="s">
-        <v>148</v>
+        <v>322</v>
       </c>
       <c r="D212" t="s">
-        <v>334</v>
+        <v>215</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4476,13 +4641,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C213" t="s">
-        <v>76</v>
+        <v>338</v>
       </c>
       <c r="D213" t="s">
-        <v>138</v>
+        <v>339</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4490,13 +4655,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C214" t="s">
-        <v>134</v>
+        <v>341</v>
       </c>
       <c r="D214" t="s">
-        <v>96</v>
+        <v>342</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4504,13 +4669,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>337</v>
-      </c>
-      <c r="C215" t="s">
-        <v>69</v>
-      </c>
-      <c r="D215" t="s">
-        <v>96</v>
+        <v>343</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4518,13 +4683,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>338</v>
-      </c>
-      <c r="C216" t="s">
-        <v>204</v>
-      </c>
-      <c r="D216" t="s">
-        <v>20</v>
+        <v>363</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4532,13 +4697,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>339</v>
-      </c>
-      <c r="C217" t="s">
-        <v>325</v>
-      </c>
-      <c r="D217" t="s">
-        <v>218</v>
+        <v>347</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4546,13 +4711,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>340</v>
-      </c>
-      <c r="C218" t="s">
-        <v>341</v>
-      </c>
-      <c r="D218" t="s">
-        <v>342</v>
+        <v>348</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4560,13 +4725,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>343</v>
-      </c>
-      <c r="C219" t="s">
-        <v>344</v>
-      </c>
-      <c r="D219" t="s">
-        <v>345</v>
+        <v>349</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4574,23 +4739,154 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="1"/>
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>367</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="1"/>
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>368</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="1"/>
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>369</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>371</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>373</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>372</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>359</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>360</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>361</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>362</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>397</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4604,7 +4900,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4614,92 +4910,92 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
